--- a/makros/fürMakro - Kopie.xlsx
+++ b/makros/fürMakro - Kopie.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minos\repos\module122\makros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RReDD\OneDrive - Berufsbildungszentrum Schaffhausen\_UNTERRICHT\__INF.18a\_122_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85E4F3A-7342-4E13-AA45-877B932B4E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D6EF69-2ECA-4D6B-B38A-3F6EF3AB2BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Januar" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>fldVORNAME</t>
   </si>
@@ -323,27 +323,6 @@
   </si>
   <si>
     <t>Frauenfelderstr. 46b</t>
-  </si>
-  <si>
-    <t>VORNAME</t>
-  </si>
-  <si>
-    <t>NACHNAME</t>
-  </si>
-  <si>
-    <t>Geburtstag</t>
-  </si>
-  <si>
-    <t>STRASSE</t>
-  </si>
-  <si>
-    <t>PLZ</t>
-  </si>
-  <si>
-    <t>ORT</t>
-  </si>
-  <si>
-    <t>Umsatz</t>
   </si>
 </sst>
 </file>
@@ -725,251 +704,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC229F4-BBA0-4C81-9C29-9A3ADFA15EC6}">
-  <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.9453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>27791</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>94</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>9554</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>7123</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C5" s="1">
         <v>29126</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>8575</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>2819</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C7" s="1">
         <v>30695</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>8280</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="G7">
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C9" s="1">
         <v>33561</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>8512</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G5">
+      <c r="G9">
         <v>687</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C11" s="1">
         <v>29731</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
+      <c r="E11">
         <v>8355</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="G6">
+      <c r="G11">
         <v>9403</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C13" s="1">
         <v>30961</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="E13">
         <v>8500</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="G7">
+      <c r="G13">
         <v>1127</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C15" s="1">
         <v>34366</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="E8">
+      <c r="E15">
         <v>8512</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="G8">
+      <c r="G15">
         <v>8952</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C17" s="1">
         <v>33982</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="E9">
+      <c r="E17">
         <v>8505</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F17" t="s">
         <v>37</v>
       </c>
-      <c r="G9">
+      <c r="G17">
         <v>8527</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C19" s="1">
         <v>33500</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="E10">
+      <c r="E19">
         <v>9542</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F19" t="s">
         <v>41</v>
       </c>
-      <c r="G10">
+      <c r="G19">
         <v>10976</v>
       </c>
     </row>
@@ -980,25 +982,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9170A6DB-9ED6-4475-AC73-D874A02CE997}">
-  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.05078125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1044,10 +1045,10 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1070,10 +1071,10 @@
         <v>6144</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1096,10 +1097,10 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1122,10 +1123,10 @@
         <v>4749</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1148,10 +1149,10 @@
         <v>9886</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1174,10 +1175,10 @@
         <v>4036</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -1200,10 +1201,10 @@
         <v>11348</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1226,10 +1227,10 @@
         <v>476</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1252,10 +1253,10 @@
         <v>6530</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1278,10 +1279,10 @@
         <v>11236</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1304,10 +1305,10 @@
         <v>7850</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1330,10 +1331,10 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1356,10 +1357,10 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1382,10 +1383,10 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -1415,35 +1416,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BEE39B-463E-42AC-833E-6C91041FBFB7}">
-  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100421AAF3C3A138B4395C7D8A873C99E6E" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7efd1f2d64fe465de4db7dcbc66b6dce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9fe1539-77dd-4b76-a7ca-33cd1d11b909" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="247d98c7a0ffb34caf8330c7a38d2455" ns2:_="">
     <xsd:import namespace="c9fe1539-77dd-4b76-a7ca-33cd1d11b909"/>
@@ -1575,37 +1560,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDC4BB65-AA04-45F3-B34E-FD2B674619EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8336EC8C-1F95-412C-8238-B08CA7EF52FC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D480D3B-95B5-4127-8869-B3188DAEFEAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D480D3B-95B5-4127-8869-B3188DAEFEAB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8336EC8C-1F95-412C-8238-B08CA7EF52FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c9fe1539-77dd-4b76-a7ca-33cd1d11b909"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDC4BB65-AA04-45F3-B34E-FD2B674619EB}"/>
 </file>